--- a/resources/keyword_dict_annotated_expanded.xlsx
+++ b/resources/keyword_dict_annotated_expanded.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C513"/>
+  <dimension ref="A1:C517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8749,7 +8749,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>estivate</t>
+          <t>doze</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -8759,14 +8759,14 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>estivate</t>
+          <t>doze</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>estivated</t>
+          <t>dozed</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -8776,14 +8776,14 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>estivate</t>
+          <t>doze</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>estivates</t>
+          <t>dozes</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -8793,14 +8793,14 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>estivate</t>
+          <t>doze</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>estivating</t>
+          <t>dozing</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -8810,14 +8810,14 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>estivate</t>
+          <t>doze</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>hibernate</t>
+          <t>estivate</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -8827,14 +8827,14 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>hibernate</t>
+          <t>estivate</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>hibernated</t>
+          <t>estivated</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -8844,14 +8844,14 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>hibernate</t>
+          <t>estivate</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>hibernates</t>
+          <t>estivates</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>hibernate</t>
+          <t>estivate</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>hibernating</t>
+          <t>estivating</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -8878,14 +8878,14 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>hibernate</t>
+          <t>estivate</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>kip</t>
+          <t>hibernate</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -8895,14 +8895,14 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>kip</t>
+          <t>hibernate</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>kipped</t>
+          <t>hibernated</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -8912,14 +8912,14 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>kip</t>
+          <t>hibernate</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>kipping</t>
+          <t>hibernates</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -8929,14 +8929,14 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>kip</t>
+          <t>hibernate</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>kips</t>
+          <t>hibernating</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -8946,14 +8946,14 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>kip</t>
+          <t>hibernate</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>nap</t>
+          <t>kip</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -8963,14 +8963,14 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>nap</t>
+          <t>kip</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>napped</t>
+          <t>kipped</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -8980,14 +8980,14 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>nap</t>
+          <t>kip</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>napping</t>
+          <t>kipping</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -8997,14 +8997,14 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>nap</t>
+          <t>kip</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>naps</t>
+          <t>kips</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -9014,14 +9014,14 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>nap</t>
+          <t>kip</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>shuteye</t>
+          <t>nap</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -9031,14 +9031,14 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>shuteye</t>
+          <t>nap</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>shuteyes</t>
+          <t>napped</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -9048,14 +9048,14 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>shuteye</t>
+          <t>nap</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>sleep</t>
+          <t>napping</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -9065,14 +9065,14 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>sleep</t>
+          <t>nap</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>sleeping</t>
+          <t>naps</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -9082,14 +9082,14 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>sleep</t>
+          <t>nap</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>sleeping</t>
+          <t>shuteye</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -9099,14 +9099,14 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>sleeping</t>
+          <t>shuteye</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>sleepings</t>
+          <t>shuteyes</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -9116,14 +9116,14 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>sleeping</t>
+          <t>shuteye</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>sleeps</t>
+          <t>sleep</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -9140,15 +9140,83 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
+          <t>sleeping</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>sleeping</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>sleeping</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>sleepings</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>sleeping</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>sleeps</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Sleep</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
           <t>slept</t>
         </is>
       </c>
-      <c r="B513" t="inlineStr">
+      <c r="B517" t="inlineStr">
         <is>
           <t>Sleep</t>
         </is>
       </c>
-      <c r="C513" t="inlineStr">
+      <c r="C517" t="inlineStr">
         <is>
           <t>sleep</t>
         </is>

--- a/resources/keyword_dict_annotated_expanded.xlsx
+++ b/resources/keyword_dict_annotated_expanded.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C517"/>
+  <dimension ref="A1:C585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9222,6 +9222,1162 @@
         </is>
       </c>
     </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>ambien</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>ambien</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>ativan</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>ativan</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>ativans</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>ativan</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>awake</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>awake</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>awakes</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>awake</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>awaking</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>awake</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>awoke</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>awake</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>awoken</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>awake</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>belsomra</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>belsomra</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>compoz nighttime sleep aid</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>compoz nighttime sleep aid</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>daridorexant</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>daridorexant</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>dayvigo</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>dayvigo</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>diphenhydramine</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>diphenhydramine</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>diphenhydramines</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>diphenhydramine</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>doral</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>doral</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>dormin</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>dormin</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>doxepin</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>doxepin</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>doxepins</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>doxepin</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>doxylamine</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>doxylamine</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>edluar</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>edluar</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>estazolam</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>estazolam</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>estazolams</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>estazolam</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>eszopiclone</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>eszopiclone</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>flurazepam</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>flurazepam</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>flurazepams</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>flurazepam</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>halcion</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>halcion</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>halcions</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>halcion</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>lemborexant</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>lemborexant</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>lorazepam</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>lorazepam</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>lorazepams</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>lorazepam</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>lunesta</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>lunesta</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>neuro</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>neuro</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>nights</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>nighttime sleepaid</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>nighttime sleepaid</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>nytol</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>nytol</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>nytol quickcaps</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>nytol quickcaps</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>overnight</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>overnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>overnights</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>overnight</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>quazepam</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>quazepam</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>quviviq</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>quviviq</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>ramelteon</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>ramelteon</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>restoril</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>restoril</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>restorils</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>restoril</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>rozerem</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>rozerem</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>silenor</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>silenor</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>simply sleep</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>simply sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>sleep aid</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>sleep aid</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>sleep-ettes d</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>sleep-ettes d</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>sleepinal</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>sleepinal</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>sominex</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>sominex</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>sonata</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>sonata</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>sonatas</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>sonata</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>suvorexant</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>suvorexant</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>temazepam</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>temazepam</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>temazepams</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>temazepam</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>triazolam</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>triazolam</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>triazolams</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>triazolam</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>twilite</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>twilite</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>unisom sleepgels</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>unisom sleepgels</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>unisom sleepmelts</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>unisom sleepmelts</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>unisom sleeptabs</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>unisom sleeptabs</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>z-sleep</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>z-sleep</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>zaleplon</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>zaleplon</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>zolpidem</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>zolpidem</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>zolpimist</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>zolpimist</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>zopiclone</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>zopiclone</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>zzzquil</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Sleepcontext</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>zzzquil</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
